--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3465.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3465.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3465</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kieron Adrian Pollard</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2674</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>15/04/2008</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2813</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2831</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2908</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>27/03/2009</t>
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1431,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>12/02/2010</t>
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3097</t>
+          <t>3097</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3227</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3247</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2248,7 +2310,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2764,7 +2825,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -2772,7 +2832,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2824,7 +2884,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2876,7 +2936,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2928,7 +2988,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2980,7 +3040,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3032,7 +3092,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3084,7 +3144,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3136,7 +3196,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3188,7 +3248,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3240,7 +3300,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3488,7 +3548,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -3496,7 +3555,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3548,7 +3607,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3600,7 +3659,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3652,7 +3711,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3704,7 +3763,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3756,7 +3815,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3808,7 +3867,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3860,7 +3919,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3912,7 +3971,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3964,7 +4023,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4016,7 +4075,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4068,7 +4127,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4120,7 +4179,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4172,7 +4231,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4224,7 +4283,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4276,7 +4335,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4328,7 +4387,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3481</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4380,7 +4439,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4432,7 +4491,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4484,7 +4543,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4536,7 +4595,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4588,7 +4647,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4640,7 +4699,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4692,7 +4751,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4744,7 +4803,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4796,7 +4855,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4848,7 +4907,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4900,7 +4959,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4952,7 +5011,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5004,7 +5063,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5056,7 +5115,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5108,7 +5167,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5160,7 +5219,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5212,7 +5271,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3892</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5264,7 +5323,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5316,7 +5375,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5368,7 +5427,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5420,7 +5479,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5472,7 +5531,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5524,7 +5583,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5576,7 +5635,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5628,7 +5687,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5680,7 +5739,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5720,7 +5779,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -5728,7 +5786,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5780,7 +5838,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5832,7 +5890,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5872,7 +5930,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -5880,7 +5937,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5932,7 +5989,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5984,7 +6041,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6036,7 +6093,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6088,7 +6145,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6128,7 +6185,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -6136,7 +6192,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6188,7 +6244,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6240,7 +6296,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6292,7 +6348,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6332,7 +6388,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -6340,7 +6395,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6392,7 +6447,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6444,7 +6499,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6496,7 +6551,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6548,7 +6603,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6600,7 +6655,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6652,7 +6707,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6704,7 +6759,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6756,7 +6811,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6808,7 +6863,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6847,7 +6902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6869,7 +6924,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6906,7 +6961,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2674</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6943,7 +6998,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2831</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6980,7 +7035,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7017,7 +7072,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7054,7 +7109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7091,7 +7146,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7128,7 +7183,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7165,7 +7220,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7202,7 +7257,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7239,7 +7294,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7276,7 +7331,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7313,7 +7368,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7350,7 +7405,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7387,7 +7442,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7424,7 +7479,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7461,7 +7516,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7498,7 +7553,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3097</t>
+          <t>3097</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7535,7 +7590,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7572,7 +7627,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7609,7 +7664,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7646,7 +7701,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7683,7 +7738,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7720,7 +7775,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7757,7 +7812,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7794,7 +7849,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7831,7 +7886,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7868,7 +7923,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7905,7 +7960,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3247</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7942,7 +7997,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7979,7 +8034,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8016,7 +8071,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8053,7 +8108,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8090,7 +8145,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8127,7 +8182,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8164,7 +8219,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8201,7 +8256,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8238,7 +8293,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8275,7 +8330,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8312,7 +8367,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8349,7 +8404,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8386,7 +8441,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8423,7 +8478,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8460,7 +8515,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8497,7 +8552,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8534,7 +8589,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8571,7 +8626,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8608,7 +8663,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8645,7 +8700,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8682,7 +8737,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8719,7 +8774,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8756,7 +8811,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8793,7 +8848,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8830,7 +8885,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8867,7 +8922,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8904,7 +8959,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8941,7 +8996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8978,7 +9033,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9015,7 +9070,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9052,7 +9107,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9089,7 +9144,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9126,7 +9181,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9163,7 +9218,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9200,7 +9255,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3892</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9237,7 +9292,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9274,7 +9329,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9311,7 +9366,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9348,7 +9403,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9385,7 +9440,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9422,7 +9477,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9459,7 +9514,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9496,7 +9551,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9533,7 +9588,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9570,7 +9625,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9607,7 +9662,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9644,7 +9699,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9681,7 +9736,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9718,7 +9773,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9755,7 +9810,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9792,7 +9847,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9829,7 +9884,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9866,7 +9921,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9903,7 +9958,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9929,6 +9984,527 @@
       <c r="G83" t="inlineStr">
         <is>
           <t>0/8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12.65%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.49%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16.53%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16.28%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>19.20%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>45.53%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3465.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3465.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10074,10 +10075,6 @@
           <t>4385</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10103,7 +10100,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10159,7 +10155,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10205,9 +10200,6 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10250,10 +10242,6 @@
           <t>4414</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10299,9 +10287,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10314,10 +10299,6 @@
           <t>4450</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10420,10 +10401,6 @@
           <t>4486</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10436,77 +10413,353 @@
           <t>4519</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3892</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3900</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3465.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3465.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>15/04/2008</t>
@@ -1073,6 +1072,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>27/03/2009</t>
@@ -1432,6 +1432,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>12/02/2010</t>
@@ -2311,6 +2312,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -2826,6 +2828,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -3549,6 +3552,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -5780,6 +5784,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -5931,6 +5936,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -6186,6 +6192,7 @@
           <t>110</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -6389,6 +6396,7 @@
           <t>114</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -9991,777 +9999,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12.65%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.49%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16.53%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.11%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16.28%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>19.20%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>45.53%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3892</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3898</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3900</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3905</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3909</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3943</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>